--- a/AzentioAutomationFramework_CSM_Kiruthiga2/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Kiruthiga2/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Stage</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>CSMParamUser1</t>
-  </si>
-  <si>
-    <t>GOWRI</t>
   </si>
   <si>
     <t>Sadsuser1</t>
@@ -219,6 +216,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,12 +229,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +274,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -317,6 +314,10 @@
       <alignment/>
       <protection/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment/>
       <protection/>
@@ -337,16 +338,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -354,44 +363,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="26" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="27" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="27" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="26" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="26" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="27" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="31">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="Currency" xfId="16" builtinId="4"/>
@@ -404,20 +413,25 @@
     <cellStyle name="Heading1" xfId="23"/>
     <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="26"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="27"/>
-    <cellStyle name="Heading_20_1" xfId="28"/>
-    <cellStyle name="Heading1_20_1" xfId="29"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="30"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="31"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="32"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="33"/>
-    <cellStyle name="Result_20_1" xfId="34"/>
-    <cellStyle name="Result2_20_1" xfId="35"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="36"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="37"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="38"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="39"/>
+    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="26"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="27"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="28"/>
+    <cellStyle name="Heading_20_1" xfId="29"/>
+    <cellStyle name="Heading1_20_1" xfId="30"/>
+    <cellStyle name="Heading1_5f_20_5f_1" xfId="31"/>
+    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="32"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="33"/>
+    <cellStyle name="Heading_5f_20_5f_1" xfId="34"/>
+    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="35"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="36"/>
+    <cellStyle name="Result_20_1" xfId="37"/>
+    <cellStyle name="Result2_20_1" xfId="38"/>
+    <cellStyle name="Result2_5f_20_5f_1" xfId="39"/>
+    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="40"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="41"/>
+    <cellStyle name="Result_5f_20_5f_1" xfId="42"/>
+    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="43"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="44"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -794,68 +808,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aa677573-a49d-43eb-89d1-20f52aa3545f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4cdad884-f7dd-4f0d-9a9d-bf52018b359f}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="15.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.571428571428571" style="2" customWidth="1"/>
-    <col min="2" max="5" width="14.142857142857142" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="14.571428571428571" style="2"/>
+    <col min="1" max="1" width="13.285714285714286" style="3" customWidth="1"/>
+    <col min="2" max="5" width="14.857142857142858" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="15.428571428571429" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>123</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>321</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -870,51 +884,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f4fc865f-69dd-4ce2-9871-da674ff2f52c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371de06b-b505-46d8-8341-efbb232e4778}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="15.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="19.571428571428573" style="2" customWidth="1"/>
-    <col min="2" max="5" width="14.142857142857142" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="14.571428571428571" style="2"/>
+    <col min="1" max="1" width="20.571428571428573" style="3" customWidth="1"/>
+    <col min="2" max="5" width="14.857142857142858" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="15.428571428571429" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>321</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -929,49 +943,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388a85e9-d195-4a1b-a96a-7725f7726704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4b819b23-f006-42ca-9cea-4972a800ed97}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="15.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="3" width="14.142857142857142" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="14.571428571428571" style="2"/>
+    <col min="1" max="3" width="14.857142857142858" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="15.428571428571429" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.05">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.05">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>123</v>
       </c>
     </row>
@@ -986,94 +1000,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1cb341f3-5044-43ee-959f-bfcf09dabeb7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57fde300-a90c-4e9d-857b-9fdf31adfad0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="15.424285714285714" defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1" width="17.714285714285715" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.428571428571427" style="7" customWidth="1"/>
-    <col min="3" max="10" width="14.571428571428571" style="7"/>
-    <col min="11" max="11" width="18.571428571428573" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17" style="7" customWidth="1"/>
-    <col min="13" max="15" width="14.571428571428571" style="7"/>
-    <col min="16" max="16" width="16.571428571428573" style="7" customWidth="1"/>
-    <col min="17" max="17" width="18.571428571428573" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="14.571428571428571" style="7"/>
+    <col min="1" max="1" width="18.714285714285715" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.714285714285715" style="7" customWidth="1"/>
+    <col min="3" max="10" width="15.428571428571429" style="7"/>
+    <col min="11" max="11" width="19.571428571428573" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.857142857142858" style="7" customWidth="1"/>
+    <col min="13" max="15" width="15.428571428571429" style="7"/>
+    <col min="16" max="16" width="17.428571428571427" style="7" customWidth="1"/>
+    <col min="17" max="17" width="19.571428571428573" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="15.428571428571429" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.05">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.25">
       <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="8">
         <v>5698</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="F2" s="8">
         <v>95916</v>
@@ -1106,10 +1120,10 @@
         <v>45070</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
